--- a/genome_accession.xlsx
+++ b/genome_accession.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyrat\Desktop\work\_cancer_gene_repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyrat\Desktop\work\Cancer_primate_GH\cancer_gene_primate-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31109B87-1CF3-464B-AC36-3260BD9F71E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9481FB05-849C-4540-898B-5CE1BB0FC72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="2184" windowWidth="17280" windowHeight="8880" xr2:uid="{B342D257-2817-40EF-B9F0-BB309D585AB7}"/>
+    <workbookView xWindow="1908" yWindow="576" windowWidth="35796" windowHeight="13872" xr2:uid="{B342D257-2817-40EF-B9F0-BB309D585AB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>GCA_000001515.5</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>GCF_000002285.5</t>
+  </si>
+  <si>
+    <t>Cebus capucinus</t>
   </si>
 </sst>
 </file>
@@ -615,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADB15F1-3781-44C3-905E-8FA620DAC594}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -826,7 +829,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
         <v>50</v>
